--- a/HE DIEU HANH/Minh họa điều phối.xlsx
+++ b/HE DIEU HANH/Minh họa điều phối.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\erick-projects\he-thong-may-tinh\HE DIEU HANH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\erick-projects\DTTX-HKI-2024\HE DIEU HANH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601514E0-03BE-43DE-B180-744F5EB971F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B18AEE7-57C9-4440-9F79-2DA4E3BEA4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5F242C0A-237D-CC43-B87E-AE25E84E98C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5F242C0A-237D-CC43-B87E-AE25E84E98C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Demo" sheetId="4" r:id="rId2"/>
-    <sheet name="RR" sheetId="3" r:id="rId3"/>
-    <sheet name="BT03" sheetId="5" r:id="rId4"/>
+    <sheet name="RR" sheetId="3" r:id="rId2"/>
+    <sheet name="Demo" sheetId="4" r:id="rId3"/>
+    <sheet name="BT03" sheetId="6" r:id="rId4"/>
+    <sheet name="BT03 Đề" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="32">
   <si>
     <t>P1</t>
   </si>
@@ -322,6 +323,39 @@
       </rPr>
       <t xml:space="preserve"> )/N</t>
     </r>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>xóa khỏi readylist tạ t=15</t>
+  </si>
+  <si>
+    <t>xóa khỏi readylist tạ t=21</t>
+  </si>
+  <si>
+    <t>p4 thoát tại t=25</t>
+  </si>
+  <si>
+    <t>p3 thoát tại t=26</t>
+  </si>
+  <si>
+    <t>TT=Tquit – Tarrive</t>
+  </si>
+  <si>
+    <t>15-2=13</t>
+  </si>
+  <si>
+    <t>26-3=23</t>
+  </si>
+  <si>
+    <t>25-7=18</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,1,1,1,3,3,3,2,2,2,4,4,4,1,1,1,3,3,3,4,3</t>
   </si>
 </sst>
 </file>
@@ -459,17 +493,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,6 +523,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>329748</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>619244</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>97927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA50726-354C-4192-9DF9-24969AC2068A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8736814" y="1539038"/>
+          <a:ext cx="6876785" cy="4374152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1147,15 +1236,15 @@
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
       <c r="L11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1269,11 +1358,457 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18BB4B-6326-FF40-B5BE-44C6989EEC05}">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView zoomScale="192" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="30" width="5.375" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>34</v>
+      </c>
+      <c r="P6" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2">
+        <v>37</v>
+      </c>
+      <c r="S6" s="2">
+        <v>38</v>
+      </c>
+      <c r="T6" s="2">
+        <v>39</v>
+      </c>
+      <c r="U6" s="2">
+        <v>40</v>
+      </c>
+      <c r="V6" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83BAD3C-0848-6948-ADE7-76B6E7591020}">
   <dimension ref="B1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1577,13 +2112,13 @@
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="10" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
       <c r="L11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1679,117 +2214,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18BB4B-6326-FF40-B5BE-44C6989EEC05}">
-  <dimension ref="A1:V17"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A425023F-67F2-43BB-971F-0EF386192FF2}">
+  <dimension ref="B1:W16"/>
   <sheetViews>
-    <sheetView zoomScale="192" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="30" width="5.375" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="1"/>
+    <col min="1" max="15" width="5.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="31" width="5.375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2">
+    <row r="1" spans="2:23">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>7</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>9</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>10</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>11</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>12</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>13</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>14</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>15</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>16</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>17</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>18</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>19</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:23">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1810,12 +2389,12 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="2" t="s">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1836,83 +2415,93 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>21</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>25</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>26</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>27</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>29</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>30</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>31</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>32</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>33</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>34</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>35</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>36</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>37</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>38</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>39</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>40</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="2:23">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1928,12 +2517,12 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="2" t="s">
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1954,12 +2543,12 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="2" t="s">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1980,193 +2569,190 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="B11" s="2" t="s">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="Q10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="L11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>21</v>
+      </c>
+      <c r="R12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="2">
         <v>6</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="2">
         <v>10</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>13</v>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:J11"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60896648-6177-4D5F-9B0E-319AD90B038A}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="33.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="39.75">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="39.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33.75">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="33.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="39.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="39.75">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
